--- a/TestData/SeleniumLotData.xlsx
+++ b/TestData/SeleniumLotData.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schoudhary\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="6780"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15900" windowHeight="4740"/>
   </bookViews>
   <sheets>
     <sheet name="LotData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,22 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>Lot Status</t>
-  </si>
-  <si>
-    <t>Is this an Amenity?</t>
-  </si>
-  <si>
-    <t>Display Name</t>
-  </si>
-  <si>
-    <t>Lot Size</t>
-  </si>
-  <si>
-    <t>Lot Premium Price</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Block</t>
   </si>
@@ -59,17 +40,62 @@
     <t>Address</t>
   </si>
   <si>
-    <t>Contact URL</t>
-  </si>
-  <si>
-    <t>Contact Button Text</t>
+    <t>LotStatus</t>
+  </si>
+  <si>
+    <t>DisplayName</t>
+  </si>
+  <si>
+    <t>LotSize</t>
+  </si>
+  <si>
+    <t>LotPremiumPrice</t>
+  </si>
+  <si>
+    <t>ContactURL</t>
+  </si>
+  <si>
+    <t>ContactButtonText</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>selenium01</t>
+  </si>
+  <si>
+    <t>3600 Sq feet</t>
+  </si>
+  <si>
+    <t>Https://www.facebook.com</t>
+  </si>
+  <si>
+    <t>BBBxl</t>
+  </si>
+  <si>
+    <t>PPPxl</t>
+  </si>
+  <si>
+    <t>Fifth Floorxl</t>
+  </si>
+  <si>
+    <t>Front xl</t>
+  </si>
+  <si>
+    <t>This is Selenium added text. Lot is ready for Sale xl</t>
+  </si>
+  <si>
+    <t>House no -3600, Law lane xl</t>
+  </si>
+  <si>
+    <t>Selenium LinkXL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,13 +103,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -95,13 +135,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -380,56 +424,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" customWidth="1"/>
+    <col min="12" max="12" width="21.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2">
+        <v>1000</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>